--- a/links.xlsx
+++ b/links.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\car587\work\agiftcrsth-linkset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB80026D-1903-4CB4-B071-F432A32B381D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A955D2-1E45-4355-9137-07397939F12C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DA0F3092-B45E-4957-9FAF-CFC4C642D98B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{DA0F3092-B45E-4957-9FAF-CFC4C642D98B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="1" r:id="rId1"/>
+    <sheet name="pre-RDF" sheetId="2" r:id="rId2"/>
+    <sheet name="spaces-removed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="785">
   <si>
     <t>https://data.naa.gov.au/def/agift/Accommodation-services</t>
   </si>
@@ -2059,6 +2061,333 @@
   </si>
   <si>
     <t>relatedMatch</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Accommodation-services&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/accommodation&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Accommodation-services&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/government-accommodation-and-catering&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Accommodation-services&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/migrant-accommodation&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Administrative-decision-appeal&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/administrative-law&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Administrative-decision-review&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/administrative-law&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Administrative-law&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/administrative-law&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Adoption-services&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/adoption-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Advertising-campaigns_2&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/advertising&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Advertising-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/advertising&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-Force&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-force&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-Force&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-force-administration&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-Force&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-force-commands&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-navigation&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-operations&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-safety&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-training-units&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-transport&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-transport-safety&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-safety&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Air-transport-safety&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-transport&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Aircraft-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/aircraft&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Airport-services&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/airport-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Animal-and-veterinary-sciences&gt; skos:relatedMatch &lt; http://test.linked.data.gov.au/def/crs-th/animal-quarantine&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Army&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/army&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Army&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/army-administration&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Army&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/army-aviation&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Army&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/army-commands&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Army-reserve-training&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/army&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-development--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-development--&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-development&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-development--&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-subsidies&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-education&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-funding--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-funding--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-development&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-funding--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-subsidies&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-incentive-schemes--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-incentive-schemes--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-development&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-incentive-schemes--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-subsidies&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-promotion--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-promotion--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-development&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Arts-promotion--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-subsidies&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/armed-forces&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-administration&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-committees&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-cooperation&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-coordination&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-forces&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-industries&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-intelligence&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-research&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-security&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-service-home-schemes&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/expeditionary-forces&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/peace-keeping-forces&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Bankruptcy-proceedings&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/bankruptcy&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/benefits&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/benefits-for-students&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/funeral-benefits&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/hospital-benefits&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/mental-institutions-benefits&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/pensions-and-benefits&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/sickness-benefits&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/unemployment-benefits&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Botany&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/botany&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Broadcasting&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/broadcasting&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Broadcasting&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/radio-broadcasting&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Broadcasting&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/television-broadcasting&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Broadcasting-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/broadcasting&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Building-acoustics&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/building&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Building-approval-services&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/building&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Building-preservation&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/building&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Building-regulations-and-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/building&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/censorship&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/film-censorship&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/literature-censorship&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/press-censorship&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/radio-censorship&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/television-censorship&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Ceremonial-events-and-representation&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/ceremonial-functions&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Citizenship&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/citizenship&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Collection-access--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Collection-accessioning--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Collection-acquisition--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Collection-management--&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Collection-promotion--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Collection-storage--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Commissions-of-inquiry&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/high-commissions&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Commissions-of-inquiry&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/royal-commissions&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Commonwealth-State-funding&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/commonwealth-state-relations&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Commonwealth-State-funding&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/state-commonwealth-relations&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Communications-infrastructure&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/communications&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Community-health-services&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Community-housing&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Community-policing&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Community-recreational-programs&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Community-support&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Conservation-programs&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/conservation&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Consular-services&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/consular-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Consumer-protection&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/consumer-affairs&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Copyright-regulation&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/copyright&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Corrective-services&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/corrective-services&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Court-reporting&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/court-reporting&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Criminology&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/criminology&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Cultural-artefact-repatriation&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-affairs&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Cultural-artefact-repatriation&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-institutions&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Cultural-awards-and-scholarships--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-affairs&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Cultural-centre-management&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-affairs&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Cultural-centre-management&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-institutions&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;https://data.naa.gov.au/def/agift/Cultural-festivals--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-affairs&gt; .</t>
   </si>
 </sst>
 </file>
@@ -2412,9 +2741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CAF967-0988-4E48-92A7-06843621BF93}">
   <dimension ref="A1:C1217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4330,6 +4657,9 @@
       <c r="A174" t="s">
         <v>136</v>
       </c>
+      <c r="B174" t="s">
+        <v>672</v>
+      </c>
       <c r="C174" t="s">
         <v>137</v>
       </c>
@@ -4338,6 +4668,9 @@
       <c r="A175" t="s">
         <v>136</v>
       </c>
+      <c r="B175" t="s">
+        <v>673</v>
+      </c>
       <c r="C175" t="s">
         <v>138</v>
       </c>
@@ -4346,6 +4679,9 @@
       <c r="A176" t="s">
         <v>136</v>
       </c>
+      <c r="B176" t="s">
+        <v>673</v>
+      </c>
       <c r="C176" t="s">
         <v>139</v>
       </c>
@@ -4354,6 +4690,9 @@
       <c r="A177" t="s">
         <v>140</v>
       </c>
+      <c r="B177" t="s">
+        <v>673</v>
+      </c>
       <c r="C177" t="s">
         <v>141</v>
       </c>
@@ -4362,6 +4701,9 @@
       <c r="A178" t="s">
         <v>142</v>
       </c>
+      <c r="B178" t="s">
+        <v>673</v>
+      </c>
       <c r="C178" t="s">
         <v>141</v>
       </c>
@@ -4370,6 +4712,9 @@
       <c r="A179" t="s">
         <v>143</v>
       </c>
+      <c r="B179" t="s">
+        <v>673</v>
+      </c>
       <c r="C179" t="s">
         <v>141</v>
       </c>
@@ -4378,6 +4723,9 @@
       <c r="A180" t="s">
         <v>144</v>
       </c>
+      <c r="B180" t="s">
+        <v>672</v>
+      </c>
       <c r="C180" t="s">
         <v>141</v>
       </c>
@@ -4386,6 +4734,9 @@
       <c r="A181" t="s">
         <v>145</v>
       </c>
+      <c r="B181" t="s">
+        <v>672</v>
+      </c>
       <c r="C181" t="s">
         <v>141</v>
       </c>
@@ -4394,6 +4745,9 @@
       <c r="A182" t="s">
         <v>146</v>
       </c>
+      <c r="B182" t="s">
+        <v>672</v>
+      </c>
       <c r="C182" t="s">
         <v>141</v>
       </c>
@@ -4402,6 +4756,9 @@
       <c r="A183" t="s">
         <v>147</v>
       </c>
+      <c r="B183" t="s">
+        <v>672</v>
+      </c>
       <c r="C183" t="s">
         <v>141</v>
       </c>
@@ -4410,6 +4767,9 @@
       <c r="A184" t="s">
         <v>148</v>
       </c>
+      <c r="B184" t="s">
+        <v>672</v>
+      </c>
       <c r="C184" t="s">
         <v>141</v>
       </c>
@@ -4418,6 +4778,9 @@
       <c r="A185" t="s">
         <v>149</v>
       </c>
+      <c r="B185" t="s">
+        <v>672</v>
+      </c>
       <c r="C185" t="s">
         <v>150</v>
       </c>
@@ -4426,6 +4789,9 @@
       <c r="A186" t="s">
         <v>151</v>
       </c>
+      <c r="B186" t="s">
+        <v>674</v>
+      </c>
       <c r="C186" t="s">
         <v>152</v>
       </c>
@@ -4434,6 +4800,9 @@
       <c r="A187" t="s">
         <v>153</v>
       </c>
+      <c r="B187" t="s">
+        <v>672</v>
+      </c>
       <c r="C187" t="s">
         <v>154</v>
       </c>
@@ -4442,6 +4811,9 @@
       <c r="A188" t="s">
         <v>155</v>
       </c>
+      <c r="B188" t="s">
+        <v>672</v>
+      </c>
       <c r="C188" t="s">
         <v>156</v>
       </c>
@@ -4450,6 +4822,9 @@
       <c r="A189" t="s">
         <v>157</v>
       </c>
+      <c r="B189" t="s">
+        <v>674</v>
+      </c>
       <c r="C189" t="s">
         <v>158</v>
       </c>
@@ -4458,6 +4833,9 @@
       <c r="A190" t="s">
         <v>159</v>
       </c>
+      <c r="B190" t="s">
+        <v>674</v>
+      </c>
       <c r="C190" t="s">
         <v>160</v>
       </c>
@@ -4466,6 +4844,9 @@
       <c r="A191" t="s">
         <v>159</v>
       </c>
+      <c r="B191" t="s">
+        <v>673</v>
+      </c>
       <c r="C191" t="s">
         <v>161</v>
       </c>
@@ -4474,6 +4855,9 @@
       <c r="A192" t="s">
         <v>159</v>
       </c>
+      <c r="B192" t="s">
+        <v>673</v>
+      </c>
       <c r="C192" t="s">
         <v>162</v>
       </c>
@@ -4482,6 +4866,9 @@
       <c r="A193" t="s">
         <v>163</v>
       </c>
+      <c r="B193" t="s">
+        <v>674</v>
+      </c>
       <c r="C193" t="s">
         <v>164</v>
       </c>
@@ -4490,6 +4877,9 @@
       <c r="A194" t="s">
         <v>165</v>
       </c>
+      <c r="B194" t="s">
+        <v>672</v>
+      </c>
       <c r="C194" t="s">
         <v>166</v>
       </c>
@@ -4498,6 +4888,9 @@
       <c r="A195" t="s">
         <v>165</v>
       </c>
+      <c r="B195" t="s">
+        <v>672</v>
+      </c>
       <c r="C195" t="s">
         <v>167</v>
       </c>
@@ -4506,6 +4899,9 @@
       <c r="A196" t="s">
         <v>168</v>
       </c>
+      <c r="B196" t="s">
+        <v>672</v>
+      </c>
       <c r="C196" t="s">
         <v>166</v>
       </c>
@@ -4514,6 +4910,9 @@
       <c r="A197" t="s">
         <v>168</v>
       </c>
+      <c r="B197" t="s">
+        <v>673</v>
+      </c>
       <c r="C197" t="s">
         <v>167</v>
       </c>
@@ -4522,6 +4921,9 @@
       <c r="A198" t="s">
         <v>169</v>
       </c>
+      <c r="B198" t="s">
+        <v>672</v>
+      </c>
       <c r="C198" t="s">
         <v>166</v>
       </c>
@@ -4530,6 +4932,9 @@
       <c r="A199" t="s">
         <v>169</v>
       </c>
+      <c r="B199" t="s">
+        <v>670</v>
+      </c>
       <c r="C199" t="s">
         <v>167</v>
       </c>
@@ -4538,6 +4943,9 @@
       <c r="A200" t="s">
         <v>170</v>
       </c>
+      <c r="B200" t="s">
+        <v>672</v>
+      </c>
       <c r="C200" t="s">
         <v>166</v>
       </c>
@@ -12681,4 +13089,4210 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57244828-A07D-4319-BC0C-33413C1D1959}">
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>raw!A1</f>
+        <v>https://data.naa.gov.au/def/agift/Accommodation-services</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(raw!B1="-","",_xlfn.CONCAT("skos:", raw!B1))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C1" t="str">
+        <f>raw!C1</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/accommodation</v>
+      </c>
+      <c r="D1" t="str">
+        <f>IF(B1="","",_xlfn.CONCAT("&lt;",A1,"&gt; ",B1," &lt;",C1,"&gt; ."))</f>
+        <v>&lt;https://data.naa.gov.au/def/agift/Accommodation-services&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/accommodation&gt; .</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>raw!A2</f>
+        <v>https://data.naa.gov.au/def/agift/Accommodation-services</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(raw!B2="-","",_xlfn.CONCAT("skos:", raw!B2))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C2" t="str">
+        <f>raw!C2</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/government-accommodation-and-catering</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">IF(B2="","",_xlfn.CONCAT("&lt;",A2,"&gt; ",B2," &lt;",C2,"&gt; ."))</f>
+        <v>&lt;https://data.naa.gov.au/def/agift/Accommodation-services&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/government-accommodation-and-catering&gt; .</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>raw!A3</f>
+        <v>https://data.naa.gov.au/def/agift/Accommodation-services</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(raw!B3="-","",_xlfn.CONCAT("skos:", raw!B3))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C3" t="str">
+        <f>raw!C3</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/migrant-accommodation</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Accommodation-services&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/migrant-accommodation&gt; .</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>raw!A4</f>
+        <v>https://data.naa.gov.au/def/agift/Administrative-decision-appeal</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF(raw!B4="-","",_xlfn.CONCAT("skos:", raw!B4))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C4" t="str">
+        <f>raw!C4</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/administrative-law</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Administrative-decision-appeal&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/administrative-law&gt; .</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>raw!A5</f>
+        <v>https://data.naa.gov.au/def/agift/Administrative-decision-appeal</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IF(raw!B5="-","",_xlfn.CONCAT("skos:", raw!B5))</f>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f>raw!C5</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/administrative-services</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>raw!A6</f>
+        <v>https://data.naa.gov.au/def/agift/Administrative-decision-review</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IF(raw!B6="-","",_xlfn.CONCAT("skos:", raw!B6))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C6" t="str">
+        <f>raw!C6</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/administrative-law</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Administrative-decision-review&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/administrative-law&gt; .</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>raw!A7</f>
+        <v>https://data.naa.gov.au/def/agift/Administrative-decision-review</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IF(raw!B7="-","",_xlfn.CONCAT("skos:", raw!B7))</f>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f>raw!C7</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/administrative-services</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>raw!A8</f>
+        <v>https://data.naa.gov.au/def/agift/Administrative-law</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(raw!B8="-","",_xlfn.CONCAT("skos:", raw!B8))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C8" t="str">
+        <f>raw!C8</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/administrative-law</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Administrative-law&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/administrative-law&gt; .</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>raw!A9</f>
+        <v>https://data.naa.gov.au/def/agift/Administrative-law</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IF(raw!B9="-","",_xlfn.CONCAT("skos:", raw!B9))</f>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f>raw!C9</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/administrative-services</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>raw!A10</f>
+        <v>https://data.naa.gov.au/def/agift/Adoption-services</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IF(raw!B10="-","",_xlfn.CONCAT("skos:", raw!B10))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C10" t="str">
+        <f>raw!C10</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/adoption-services</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Adoption-services&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/adoption-services&gt; .</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>raw!A11</f>
+        <v>https://data.naa.gov.au/def/agift/Advertising-campaigns_2</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IF(raw!B11="-","",_xlfn.CONCAT("skos:", raw!B11))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C11" t="str">
+        <f>raw!C11</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/advertising</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Advertising-campaigns_2&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/advertising&gt; .</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>raw!A12</f>
+        <v>https://data.naa.gov.au/def/agift/Advertising-standards</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IF(raw!B12="-","",_xlfn.CONCAT("skos:", raw!B12))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C12" t="str">
+        <f>raw!C12</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/advertising</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Advertising-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/advertising&gt; .</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>raw!A13</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(raw!B13="-","",_xlfn.CONCAT("skos:", raw!B13))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C13" t="str">
+        <f>raw!C13</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-Force&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-force&gt; .</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>raw!A14</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF(raw!B14="-","",_xlfn.CONCAT("skos:", raw!B14))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C14" t="str">
+        <f>raw!C14</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force-administration</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-Force&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-force-administration&gt; .</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>raw!A15</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IF(raw!B15="-","",_xlfn.CONCAT("skos:", raw!B15))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C15" t="str">
+        <f>raw!C15</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force-administration</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-Force&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-force-administration&gt; .</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>raw!A16</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IF(raw!B16="-","",_xlfn.CONCAT("skos:", raw!B16))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C16" t="str">
+        <f>raw!C16</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force-commands</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-Force&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-force-commands&gt; .</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>raw!A17</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IF(raw!B17="-","",_xlfn.CONCAT("skos:", raw!B17))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C17" t="str">
+        <f>raw!C17</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force-commands</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-Force&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-force-commands&gt; .</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>raw!A18</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IF(raw!B18="-","",_xlfn.CONCAT("skos:", raw!B18))</f>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <f>raw!C18</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-navigation</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>raw!A19</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IF(raw!B19="-","",_xlfn.CONCAT("skos:", raw!B19))</f>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f>raw!C19</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-operations</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>raw!A20</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B20" t="str">
+        <f>IF(raw!B20="-","",_xlfn.CONCAT("skos:", raw!B20))</f>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f>raw!C20</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-safety</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>raw!A21</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IF(raw!B21="-","",_xlfn.CONCAT("skos:", raw!B21))</f>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f>raw!C21</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-training-units</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>raw!A22</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B22" t="str">
+        <f>IF(raw!B22="-","",_xlfn.CONCAT("skos:", raw!B22))</f>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f>raw!C22</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-transport</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>raw!A23</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IF(raw!B23="-","",_xlfn.CONCAT("skos:", raw!B23))</f>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f>raw!C23</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/field-force-army</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>raw!A24</f>
+        <v>https://data.naa.gov.au/def/agift/Air-Force</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IF(raw!B24="-","",_xlfn.CONCAT("skos:", raw!B24))</f>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f>raw!C24</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/fleet-air-arm</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>raw!A25</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B25" t="str">
+        <f>IF(raw!B25="-","",_xlfn.CONCAT("skos:", raw!B25))</f>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f>raw!C25</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>raw!A26</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B26" t="str">
+        <f>IF(raw!B26="-","",_xlfn.CONCAT("skos:", raw!B26))</f>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f>raw!C26</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force-administration</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>raw!A27</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IF(raw!B27="-","",_xlfn.CONCAT("skos:", raw!B27))</f>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f>raw!C27</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force-commands</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>raw!A28</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IF(raw!B28="-","",_xlfn.CONCAT("skos:", raw!B28))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C28" t="str">
+        <f>raw!C28</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-navigation</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-navigation&gt; .</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>raw!A29</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IF(raw!B29="-","",_xlfn.CONCAT("skos:", raw!B29))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C29" t="str">
+        <f>raw!C29</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-operations</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-operations&gt; .</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>raw!A30</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IF(raw!B30="-","",_xlfn.CONCAT("skos:", raw!B30))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C30" t="str">
+        <f>raw!C30</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-safety</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-safety&gt; .</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>raw!A31</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B31" t="str">
+        <f>IF(raw!B31="-","",_xlfn.CONCAT("skos:", raw!B31))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C31" t="str">
+        <f>raw!C31</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-training-units</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-training-units&gt; .</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>raw!A32</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IF(raw!B32="-","",_xlfn.CONCAT("skos:", raw!B32))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C32" t="str">
+        <f>raw!C32</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-transport</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-transport&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-transport&gt; .</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>raw!A33</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IF(raw!B33="-","",_xlfn.CONCAT("skos:", raw!B33))</f>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f>raw!C33</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/fleet-air-arm</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>raw!A34</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IF(raw!B34="-","",_xlfn.CONCAT("skos:", raw!B34))</f>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f>raw!C34</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>raw!A35</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IF(raw!B35="-","",_xlfn.CONCAT("skos:", raw!B35))</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f>raw!C35</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force-administration</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>raw!A36</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(raw!B36="-","",_xlfn.CONCAT("skos:", raw!B36))</f>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f>raw!C36</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-force-commands</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>raw!A37</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IF(raw!B37="-","",_xlfn.CONCAT("skos:", raw!B37))</f>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f>raw!C37</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-navigation</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>raw!A38</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IF(raw!B38="-","",_xlfn.CONCAT("skos:", raw!B38))</f>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f>raw!C38</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-operations</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>raw!A39</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IF(raw!B39="-","",_xlfn.CONCAT("skos:", raw!B39))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C39" t="str">
+        <f>raw!C39</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-safety</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-transport-safety&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-safety&gt; .</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>raw!A40</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IF(raw!B40="-","",_xlfn.CONCAT("skos:", raw!B40))</f>
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <f>raw!C40</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-training-units</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>raw!A41</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IF(raw!B41="-","",_xlfn.CONCAT("skos:", raw!B41))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C41" t="str">
+        <f>raw!C41</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/air-transport</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Air-transport-safety&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/air-transport&gt; .</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>raw!A42</f>
+        <v>https://data.naa.gov.au/def/agift/Air-transport-safety</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IF(raw!B42="-","",_xlfn.CONCAT("skos:", raw!B42))</f>
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <f>raw!C42</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/fleet-air-arm</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>raw!A43</f>
+        <v>https://data.naa.gov.au/def/agift/Aircraft-standards</v>
+      </c>
+      <c r="B43" t="str">
+        <f>IF(raw!B43="-","",_xlfn.CONCAT("skos:", raw!B43))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C43" t="str">
+        <f>raw!C43</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/aircraft</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Aircraft-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/aircraft&gt; .</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>raw!A44</f>
+        <v>https://data.naa.gov.au/def/agift/Airport-services</v>
+      </c>
+      <c r="B44" t="str">
+        <f>IF(raw!B44="-","",_xlfn.CONCAT("skos:", raw!B44))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C44" t="str">
+        <f>raw!C44</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/airport-services</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Airport-services&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/airport-services&gt; .</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>raw!A45</f>
+        <v>https://data.naa.gov.au/def/agift/Animal-and-veterinary-sciences</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IF(raw!B45="-","",_xlfn.CONCAT("skos:", raw!B45))</f>
+        <v>skos:relatedMatch</v>
+      </c>
+      <c r="C45" t="str">
+        <f>raw!C45</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/animal-quarantine</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Animal-and-veterinary-sciences&gt; skos:relatedMatch &lt; http://test.linked.data.gov.au/def/crs-th/animal-quarantine&gt; .</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>raw!A46</f>
+        <v>https://data.naa.gov.au/def/agift/Army</v>
+      </c>
+      <c r="B46" t="str">
+        <f>IF(raw!B46="-","",_xlfn.CONCAT("skos:", raw!B46))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C46" t="str">
+        <f>raw!C46</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/army</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Army&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/army&gt; .</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>raw!A47</f>
+        <v>https://data.naa.gov.au/def/agift/Army</v>
+      </c>
+      <c r="B47" t="str">
+        <f>IF(raw!B47="-","",_xlfn.CONCAT("skos:", raw!B47))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C47" t="str">
+        <f>raw!C47</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/army-administration</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Army&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/army-administration&gt; .</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>raw!A48</f>
+        <v>https://data.naa.gov.au/def/agift/Army</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IF(raw!B48="-","",_xlfn.CONCAT("skos:", raw!B48))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C48" t="str">
+        <f>raw!C48</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/army-aviation</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Army&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/army-aviation&gt; .</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>raw!A49</f>
+        <v>https://data.naa.gov.au/def/agift/Army</v>
+      </c>
+      <c r="B49" t="str">
+        <f>IF(raw!B49="-","",_xlfn.CONCAT("skos:", raw!B49))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C49" t="str">
+        <f>raw!C49</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/army-commands</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Army&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/army-commands&gt; .</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>raw!A50</f>
+        <v>https://data.naa.gov.au/def/agift/Army-reserve-training</v>
+      </c>
+      <c r="B50" t="str">
+        <f>IF(raw!B50="-","",_xlfn.CONCAT("skos:", raw!B50))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C50" t="str">
+        <f>raw!C50</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/army</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Army-reserve-training&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/army&gt; .</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>raw!A51</f>
+        <v>https://data.naa.gov.au/def/agift/Army-reserve-training</v>
+      </c>
+      <c r="B51" t="str">
+        <f>IF(raw!B51="-","",_xlfn.CONCAT("skos:", raw!B51))</f>
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <f>raw!C51</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/army-administration</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>raw!A52</f>
+        <v>https://data.naa.gov.au/def/agift/Army-reserve-training</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IF(raw!B52="-","",_xlfn.CONCAT("skos:", raw!B52))</f>
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <f>raw!C52</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/army-aviation</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>raw!A53</f>
+        <v>https://data.naa.gov.au/def/agift/Army-reserve-training</v>
+      </c>
+      <c r="B53" t="str">
+        <f>IF(raw!B53="-","",_xlfn.CONCAT("skos:", raw!B53))</f>
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <f>raw!C53</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/army-commands</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>raw!A54</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-development--</v>
+      </c>
+      <c r="B54" t="str">
+        <f>IF(raw!B54="-","",_xlfn.CONCAT("skos:", raw!B54))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C54" t="str">
+        <f>raw!C54</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-development--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>raw!A55</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-development--</v>
+      </c>
+      <c r="B55" t="str">
+        <f>IF(raw!B55="-","",_xlfn.CONCAT("skos:", raw!B55))</f>
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <f>raw!C55</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-and-crafts</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>raw!A56</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-development--</v>
+      </c>
+      <c r="B56" t="str">
+        <f>IF(raw!B56="-","",_xlfn.CONCAT("skos:", raw!B56))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C56" t="str">
+        <f>raw!C56</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-development</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-development--&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-development&gt; .</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>raw!A57</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-development--</v>
+      </c>
+      <c r="B57" t="str">
+        <f>IF(raw!B57="-","",_xlfn.CONCAT("skos:", raw!B57))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C57" t="str">
+        <f>raw!C57</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-subsidies</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-development--&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-subsidies&gt; .</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>raw!A58</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-development--</v>
+      </c>
+      <c r="B58" t="str">
+        <f>IF(raw!B58="-","",_xlfn.CONCAT("skos:", raw!B58))</f>
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <f>raw!C58</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/fine-arts</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>raw!A59</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-development--</v>
+      </c>
+      <c r="B59" t="str">
+        <f>IF(raw!B59="-","",_xlfn.CONCAT("skos:", raw!B59))</f>
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <f>raw!C59</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/performing-arts</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>raw!A60</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-education</v>
+      </c>
+      <c r="B60" t="str">
+        <f>IF(raw!B60="-","",_xlfn.CONCAT("skos:", raw!B60))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C60" t="str">
+        <f>raw!C60</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-education&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>raw!A61</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-education</v>
+      </c>
+      <c r="B61" t="str">
+        <f>IF(raw!B61="-","",_xlfn.CONCAT("skos:", raw!B61))</f>
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <f>raw!C61</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-and-crafts</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>raw!A62</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-education</v>
+      </c>
+      <c r="B62" t="str">
+        <f>IF(raw!B62="-","",_xlfn.CONCAT("skos:", raw!B62))</f>
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <f>raw!C62</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-development</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>raw!A63</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-education</v>
+      </c>
+      <c r="B63" t="str">
+        <f>IF(raw!B63="-","",_xlfn.CONCAT("skos:", raw!B63))</f>
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <f>raw!C63</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-subsidies</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>raw!A64</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-education</v>
+      </c>
+      <c r="B64" t="str">
+        <f>IF(raw!B64="-","",_xlfn.CONCAT("skos:", raw!B64))</f>
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <f>raw!C64</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/fine-arts</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>raw!A65</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-education</v>
+      </c>
+      <c r="B65" t="str">
+        <f>IF(raw!B65="-","",_xlfn.CONCAT("skos:", raw!B65))</f>
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <f>raw!C65</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/performing-arts</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>raw!A66</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-funding--</v>
+      </c>
+      <c r="B66" t="str">
+        <f>IF(raw!B66="-","",_xlfn.CONCAT("skos:", raw!B66))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C66" t="str">
+        <f>raw!C66</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D129" si="1">IF(B66="","",_xlfn.CONCAT("&lt;",A66,"&gt; ",B66," &lt;",C66,"&gt; ."))</f>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-funding--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>raw!A67</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-funding--</v>
+      </c>
+      <c r="B67" t="str">
+        <f>IF(raw!B67="-","",_xlfn.CONCAT("skos:", raw!B67))</f>
+        <v/>
+      </c>
+      <c r="C67" t="str">
+        <f>raw!C67</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-and-crafts</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>raw!A68</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-funding--</v>
+      </c>
+      <c r="B68" t="str">
+        <f>IF(raw!B68="-","",_xlfn.CONCAT("skos:", raw!B68))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C68" t="str">
+        <f>raw!C68</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-development</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-funding--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-development&gt; .</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>raw!A69</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-funding--</v>
+      </c>
+      <c r="B69" t="str">
+        <f>IF(raw!B69="-","",_xlfn.CONCAT("skos:", raw!B69))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C69" t="str">
+        <f>raw!C69</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-subsidies</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-funding--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-subsidies&gt; .</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>raw!A70</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-funding--</v>
+      </c>
+      <c r="B70" t="str">
+        <f>IF(raw!B70="-","",_xlfn.CONCAT("skos:", raw!B70))</f>
+        <v/>
+      </c>
+      <c r="C70" t="str">
+        <f>raw!C70</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/fine-arts</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>raw!A71</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-funding--</v>
+      </c>
+      <c r="B71" t="str">
+        <f>IF(raw!B71="-","",_xlfn.CONCAT("skos:", raw!B71))</f>
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <f>raw!C71</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/performing-arts</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>raw!A72</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-incentive-schemes--</v>
+      </c>
+      <c r="B72" t="str">
+        <f>IF(raw!B72="-","",_xlfn.CONCAT("skos:", raw!B72))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C72" t="str">
+        <f>raw!C72</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-incentive-schemes--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>raw!A73</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-incentive-schemes--</v>
+      </c>
+      <c r="B73" t="str">
+        <f>IF(raw!B73="-","",_xlfn.CONCAT("skos:", raw!B73))</f>
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <f>raw!C73</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-and-crafts</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>raw!A74</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-incentive-schemes--</v>
+      </c>
+      <c r="B74" t="str">
+        <f>IF(raw!B74="-","",_xlfn.CONCAT("skos:", raw!B74))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C74" t="str">
+        <f>raw!C74</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-development</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-incentive-schemes--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-development&gt; .</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>raw!A75</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-incentive-schemes--</v>
+      </c>
+      <c r="B75" t="str">
+        <f>IF(raw!B75="-","",_xlfn.CONCAT("skos:", raw!B75))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C75" t="str">
+        <f>raw!C75</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-subsidies</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-incentive-schemes--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-subsidies&gt; .</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>raw!A76</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-incentive-schemes--</v>
+      </c>
+      <c r="B76" t="str">
+        <f>IF(raw!B76="-","",_xlfn.CONCAT("skos:", raw!B76))</f>
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <f>raw!C76</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/fine-arts</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>raw!A77</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-incentive-schemes--</v>
+      </c>
+      <c r="B77" t="str">
+        <f>IF(raw!B77="-","",_xlfn.CONCAT("skos:", raw!B77))</f>
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <f>raw!C77</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/performing-arts</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>raw!A78</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-promotion--</v>
+      </c>
+      <c r="B78" t="str">
+        <f>IF(raw!B78="-","",_xlfn.CONCAT("skos:", raw!B78))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C78" t="str">
+        <f>raw!C78</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-promotion--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts&gt; .</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>raw!A79</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-promotion--</v>
+      </c>
+      <c r="B79" t="str">
+        <f>IF(raw!B79="-","",_xlfn.CONCAT("skos:", raw!B79))</f>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <f>raw!C79</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-and-crafts</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>raw!A80</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-promotion--</v>
+      </c>
+      <c r="B80" t="str">
+        <f>IF(raw!B80="-","",_xlfn.CONCAT("skos:", raw!B80))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C80" t="str">
+        <f>raw!C80</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-development</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-promotion--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-development&gt; .</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>raw!A81</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-promotion--</v>
+      </c>
+      <c r="B81" t="str">
+        <f>IF(raw!B81="-","",_xlfn.CONCAT("skos:", raw!B81))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C81" t="str">
+        <f>raw!C81</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/arts-subsidies</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Arts-promotion--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/arts-subsidies&gt; .</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>raw!A82</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-promotion--</v>
+      </c>
+      <c r="B82" t="str">
+        <f>IF(raw!B82="-","",_xlfn.CONCAT("skos:", raw!B82))</f>
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <f>raw!C82</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/fine-arts</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>raw!A83</f>
+        <v>https://data.naa.gov.au/def/agift/Arts-promotion--</v>
+      </c>
+      <c r="B83" t="str">
+        <f>IF(raw!B83="-","",_xlfn.CONCAT("skos:", raw!B83))</f>
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <f>raw!C83</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/performing-arts</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>raw!A84</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B84" t="str">
+        <f>IF(raw!B84="-","",_xlfn.CONCAT("skos:", raw!B84))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C84" t="str">
+        <f>raw!C84</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/armed-forces</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/armed-forces&gt; .</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>raw!A85</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B85" t="str">
+        <f>IF(raw!B85="-","",_xlfn.CONCAT("skos:", raw!B85))</f>
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <f>raw!C85</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/australian-antarctic-territory</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>raw!A86</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B86" t="str">
+        <f>IF(raw!B86="-","",_xlfn.CONCAT("skos:", raw!B86))</f>
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <f>raw!C86</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/australian-capital-territory</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>raw!A87</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B87" t="str">
+        <f>IF(raw!B87="-","",_xlfn.CONCAT("skos:", raw!B87))</f>
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <f>raw!C87</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/council-of-defence</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>raw!A88</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B88" t="str">
+        <f>IF(raw!B88="-","",_xlfn.CONCAT("skos:", raw!B88))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C88" t="str">
+        <f>raw!C88</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence&gt; .</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>raw!A89</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B89" t="str">
+        <f>IF(raw!B89="-","",_xlfn.CONCAT("skos:", raw!B89))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C89" t="str">
+        <f>raw!C89</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-administration</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-administration&gt; .</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>raw!A90</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B90" t="str">
+        <f>IF(raw!B90="-","",_xlfn.CONCAT("skos:", raw!B90))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C90" t="str">
+        <f>raw!C90</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-committees</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-committees&gt; .</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>raw!A91</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B91" t="str">
+        <f>IF(raw!B91="-","",_xlfn.CONCAT("skos:", raw!B91))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C91" t="str">
+        <f>raw!C91</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-cooperation</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-cooperation&gt; .</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>raw!A92</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B92" t="str">
+        <f>IF(raw!B92="-","",_xlfn.CONCAT("skos:", raw!B92))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C92" t="str">
+        <f>raw!C92</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-coordination</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-coordination&gt; .</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>raw!A93</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B93" t="str">
+        <f>IF(raw!B93="-","",_xlfn.CONCAT("skos:", raw!B93))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C93" t="str">
+        <f>raw!C93</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-forces</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-forces&gt; .</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>raw!A94</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B94" t="str">
+        <f>IF(raw!B94="-","",_xlfn.CONCAT("skos:", raw!B94))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C94" t="str">
+        <f>raw!C94</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-forces</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-forces&gt; .</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>raw!A95</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B95" t="str">
+        <f>IF(raw!B95="-","",_xlfn.CONCAT("skos:", raw!B95))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C95" t="str">
+        <f>raw!C95</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-industries</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-industries&gt; .</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>raw!A96</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B96" t="str">
+        <f>IF(raw!B96="-","",_xlfn.CONCAT("skos:", raw!B96))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C96" t="str">
+        <f>raw!C96</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-intelligence</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-intelligence&gt; .</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>raw!A97</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B97" t="str">
+        <f>IF(raw!B97="-","",_xlfn.CONCAT("skos:", raw!B97))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C97" t="str">
+        <f>raw!C97</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-research</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-research&gt; .</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>raw!A98</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B98" t="str">
+        <f>IF(raw!B98="-","",_xlfn.CONCAT("skos:", raw!B98))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C98" t="str">
+        <f>raw!C98</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-security</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-security&gt; .</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>raw!A99</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B99" t="str">
+        <f>IF(raw!B99="-","",_xlfn.CONCAT("skos:", raw!B99))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C99" t="str">
+        <f>raw!C99</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/defence-service-home-schemes</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/defence-service-home-schemes&gt; .</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>raw!A100</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B100" t="str">
+        <f>IF(raw!B100="-","",_xlfn.CONCAT("skos:", raw!B100))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C100" t="str">
+        <f>raw!C100</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/expeditionary-forces</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/expeditionary-forces&gt; .</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>raw!A101</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-Defence-Forces</v>
+      </c>
+      <c r="B101" t="str">
+        <f>IF(raw!B101="-","",_xlfn.CONCAT("skos:", raw!B101))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C101" t="str">
+        <f>raw!C101</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/peace-keeping-forces</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Australian-Defence-Forces&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/peace-keeping-forces&gt; .</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>raw!A102</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-theatre-of-war</v>
+      </c>
+      <c r="B102" t="str">
+        <f>IF(raw!B102="-","",_xlfn.CONCAT("skos:", raw!B102))</f>
+        <v/>
+      </c>
+      <c r="C102" t="str">
+        <f>raw!C102</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/australian-antarctic-territory</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>raw!A103</f>
+        <v>https://data.naa.gov.au/def/agift/Australian-theatre-of-war</v>
+      </c>
+      <c r="B103" t="str">
+        <f>IF(raw!B103="-","",_xlfn.CONCAT("skos:", raw!B103))</f>
+        <v/>
+      </c>
+      <c r="C103" t="str">
+        <f>raw!C103</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/australian-capital-territory</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>raw!A104</f>
+        <v>https://data.naa.gov.au/def/agift/Bankruptcy-proceedings</v>
+      </c>
+      <c r="B104" t="str">
+        <f>IF(raw!B104="-","",_xlfn.CONCAT("skos:", raw!B104))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C104" t="str">
+        <f>raw!C104</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/bankruptcy</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Bankruptcy-proceedings&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/bankruptcy&gt; .</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>raw!A105</f>
+        <v>https://data.naa.gov.au/def/agift/Benefits</v>
+      </c>
+      <c r="B105" t="str">
+        <f>IF(raw!B105="-","",_xlfn.CONCAT("skos:", raw!B105))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C105" t="str">
+        <f>raw!C105</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/benefits</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/benefits&gt; .</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>raw!A106</f>
+        <v>https://data.naa.gov.au/def/agift/Benefits</v>
+      </c>
+      <c r="B106" t="str">
+        <f>IF(raw!B106="-","",_xlfn.CONCAT("skos:", raw!B106))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C106" t="str">
+        <f>raw!C106</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/benefits-for-students</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/benefits-for-students&gt; .</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>raw!A107</f>
+        <v>https://data.naa.gov.au/def/agift/Benefits</v>
+      </c>
+      <c r="B107" t="str">
+        <f>IF(raw!B107="-","",_xlfn.CONCAT("skos:", raw!B107))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C107" t="str">
+        <f>raw!C107</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/funeral-benefits</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/funeral-benefits&gt; .</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>raw!A108</f>
+        <v>https://data.naa.gov.au/def/agift/Benefits</v>
+      </c>
+      <c r="B108" t="str">
+        <f>IF(raw!B108="-","",_xlfn.CONCAT("skos:", raw!B108))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C108" t="str">
+        <f>raw!C108</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/hospital-benefits</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/hospital-benefits&gt; .</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>raw!A109</f>
+        <v>https://data.naa.gov.au/def/agift/Benefits</v>
+      </c>
+      <c r="B109" t="str">
+        <f>IF(raw!B109="-","",_xlfn.CONCAT("skos:", raw!B109))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C109" t="str">
+        <f>raw!C109</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/mental-institutions-benefits</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/mental-institutions-benefits&gt; .</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>raw!A110</f>
+        <v>https://data.naa.gov.au/def/agift/Benefits</v>
+      </c>
+      <c r="B110" t="str">
+        <f>IF(raw!B110="-","",_xlfn.CONCAT("skos:", raw!B110))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C110" t="str">
+        <f>raw!C110</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/pensions-and-benefits</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/pensions-and-benefits&gt; .</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>raw!A111</f>
+        <v>https://data.naa.gov.au/def/agift/Benefits</v>
+      </c>
+      <c r="B111" t="str">
+        <f>IF(raw!B111="-","",_xlfn.CONCAT("skos:", raw!B111))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C111" t="str">
+        <f>raw!C111</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/sickness-benefits</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/sickness-benefits&gt; .</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>raw!A112</f>
+        <v>https://data.naa.gov.au/def/agift/Benefits</v>
+      </c>
+      <c r="B112" t="str">
+        <f>IF(raw!B112="-","",_xlfn.CONCAT("skos:", raw!B112))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C112" t="str">
+        <f>raw!C112</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/unemployment-benefits</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Benefits&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/unemployment-benefits&gt; .</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>raw!A113</f>
+        <v>https://data.naa.gov.au/def/agift/Botany</v>
+      </c>
+      <c r="B113" t="str">
+        <f>IF(raw!B113="-","",_xlfn.CONCAT("skos:", raw!B113))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C113" t="str">
+        <f>raw!C113</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/botany</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Botany&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/botany&gt; .</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>raw!A114</f>
+        <v>https://data.naa.gov.au/def/agift/Broadcasting</v>
+      </c>
+      <c r="B114" t="str">
+        <f>IF(raw!B114="-","",_xlfn.CONCAT("skos:", raw!B114))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C114" t="str">
+        <f>raw!C114</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/broadcasting</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Broadcasting&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/broadcasting&gt; .</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>raw!A115</f>
+        <v>https://data.naa.gov.au/def/agift/Broadcasting</v>
+      </c>
+      <c r="B115" t="str">
+        <f>IF(raw!B115="-","",_xlfn.CONCAT("skos:", raw!B115))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C115" t="str">
+        <f>raw!C115</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/radio-broadcasting</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Broadcasting&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/radio-broadcasting&gt; .</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>raw!A116</f>
+        <v>https://data.naa.gov.au/def/agift/Broadcasting</v>
+      </c>
+      <c r="B116" t="str">
+        <f>IF(raw!B116="-","",_xlfn.CONCAT("skos:", raw!B116))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C116" t="str">
+        <f>raw!C116</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/television-broadcasting</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Broadcasting&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/television-broadcasting&gt; .</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>raw!A117</f>
+        <v>https://data.naa.gov.au/def/agift/Broadcasting-standards</v>
+      </c>
+      <c r="B117" t="str">
+        <f>IF(raw!B117="-","",_xlfn.CONCAT("skos:", raw!B117))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C117" t="str">
+        <f>raw!C117</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/broadcasting</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Broadcasting-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/broadcasting&gt; .</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>raw!A118</f>
+        <v>https://data.naa.gov.au/def/agift/Broadcasting-standards</v>
+      </c>
+      <c r="B118" t="str">
+        <f>IF(raw!B118="-","",_xlfn.CONCAT("skos:", raw!B118))</f>
+        <v/>
+      </c>
+      <c r="C118" t="str">
+        <f>raw!C118</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/radio-broadcasting</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>raw!A119</f>
+        <v>https://data.naa.gov.au/def/agift/Broadcasting-standards</v>
+      </c>
+      <c r="B119" t="str">
+        <f>IF(raw!B119="-","",_xlfn.CONCAT("skos:", raw!B119))</f>
+        <v/>
+      </c>
+      <c r="C119" t="str">
+        <f>raw!C119</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/television-broadcasting</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>raw!A120</f>
+        <v>https://data.naa.gov.au/def/agift/Building-acoustics</v>
+      </c>
+      <c r="B120" t="str">
+        <f>IF(raw!B120="-","",_xlfn.CONCAT("skos:", raw!B120))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C120" t="str">
+        <f>raw!C120</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/building</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Building-acoustics&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/building&gt; .</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>raw!A121</f>
+        <v>https://data.naa.gov.au/def/agift/Building-approval-services</v>
+      </c>
+      <c r="B121" t="str">
+        <f>IF(raw!B121="-","",_xlfn.CONCAT("skos:", raw!B121))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C121" t="str">
+        <f>raw!C121</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/building</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Building-approval-services&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/building&gt; .</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>raw!A122</f>
+        <v>https://data.naa.gov.au/def/agift/Building-preservation</v>
+      </c>
+      <c r="B122" t="str">
+        <f>IF(raw!B122="-","",_xlfn.CONCAT("skos:", raw!B122))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C122" t="str">
+        <f>raw!C122</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/building</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Building-preservation&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/building&gt; .</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>raw!A123</f>
+        <v>https://data.naa.gov.au/def/agift/Building-regulations-and-standards</v>
+      </c>
+      <c r="B123" t="str">
+        <f>IF(raw!B123="-","",_xlfn.CONCAT("skos:", raw!B123))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C123" t="str">
+        <f>raw!C123</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/building</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Building-regulations-and-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/building&gt; .</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>raw!A124</f>
+        <v>https://data.naa.gov.au/def/agift/Capital-equipment-programs</v>
+      </c>
+      <c r="B124" t="str">
+        <f>IF(raw!B124="-","",_xlfn.CONCAT("skos:", raw!B124))</f>
+        <v/>
+      </c>
+      <c r="C124" t="str">
+        <f>raw!C124</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/australian-capital-territory</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>raw!A125</f>
+        <v>https://data.naa.gov.au/def/agift/Capital-equipment-programs</v>
+      </c>
+      <c r="B125" t="str">
+        <f>IF(raw!B125="-","",_xlfn.CONCAT("skos:", raw!B125))</f>
+        <v/>
+      </c>
+      <c r="C125" t="str">
+        <f>raw!C125</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/federal-capital-territory</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>raw!A126</f>
+        <v>https://data.naa.gov.au/def/agift/Capital-equipment-programs</v>
+      </c>
+      <c r="B126" t="str">
+        <f>IF(raw!B126="-","",_xlfn.CONCAT("skos:", raw!B126))</f>
+        <v/>
+      </c>
+      <c r="C126" t="str">
+        <f>raw!C126</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/national-capital</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>raw!A127</f>
+        <v>https://data.naa.gov.au/def/agift/Censorship-standards</v>
+      </c>
+      <c r="B127" t="str">
+        <f>IF(raw!B127="-","",_xlfn.CONCAT("skos:", raw!B127))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C127" t="str">
+        <f>raw!C127</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/censorship</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/censorship&gt; .</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>raw!A128</f>
+        <v>https://data.naa.gov.au/def/agift/Censorship-standards</v>
+      </c>
+      <c r="B128" t="str">
+        <f>IF(raw!B128="-","",_xlfn.CONCAT("skos:", raw!B128))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C128" t="str">
+        <f>raw!C128</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/film-censorship</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/film-censorship&gt; .</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>raw!A129</f>
+        <v>https://data.naa.gov.au/def/agift/Censorship-standards</v>
+      </c>
+      <c r="B129" t="str">
+        <f>IF(raw!B129="-","",_xlfn.CONCAT("skos:", raw!B129))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C129" t="str">
+        <f>raw!C129</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/literature-censorship</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/literature-censorship&gt; .</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>raw!A130</f>
+        <v>https://data.naa.gov.au/def/agift/Censorship-standards</v>
+      </c>
+      <c r="B130" t="str">
+        <f>IF(raw!B130="-","",_xlfn.CONCAT("skos:", raw!B130))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C130" t="str">
+        <f>raw!C130</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/press-censorship</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" ref="D130:D193" si="2">IF(B130="","",_xlfn.CONCAT("&lt;",A130,"&gt; ",B130," &lt;",C130,"&gt; ."))</f>
+        <v>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/press-censorship&gt; .</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>raw!A131</f>
+        <v>https://data.naa.gov.au/def/agift/Censorship-standards</v>
+      </c>
+      <c r="B131" t="str">
+        <f>IF(raw!B131="-","",_xlfn.CONCAT("skos:", raw!B131))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C131" t="str">
+        <f>raw!C131</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/radio-censorship</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/radio-censorship&gt; .</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>raw!A132</f>
+        <v>https://data.naa.gov.au/def/agift/Censorship-standards</v>
+      </c>
+      <c r="B132" t="str">
+        <f>IF(raw!B132="-","",_xlfn.CONCAT("skos:", raw!B132))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C132" t="str">
+        <f>raw!C132</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/television-censorship</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Censorship-standards&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/television-censorship&gt; .</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>raw!A133</f>
+        <v>https://data.naa.gov.au/def/agift/Ceremonial-events-and-representation</v>
+      </c>
+      <c r="B133" t="str">
+        <f>IF(raw!B133="-","",_xlfn.CONCAT("skos:", raw!B133))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C133" t="str">
+        <f>raw!C133</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/ceremonial-functions</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Ceremonial-events-and-representation&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/ceremonial-functions&gt; .</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>raw!A134</f>
+        <v>https://data.naa.gov.au/def/agift/Chemical-and-pesticide-regulation</v>
+      </c>
+      <c r="B134" t="str">
+        <f>IF(raw!B134="-","",_xlfn.CONCAT("skos:", raw!B134))</f>
+        <v/>
+      </c>
+      <c r="C134" t="str">
+        <f>raw!C134</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/chemical-analysis</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>raw!A135</f>
+        <v>https://data.naa.gov.au/def/agift/Chemical-and-pesticide-regulation</v>
+      </c>
+      <c r="B135" t="str">
+        <f>IF(raw!B135="-","",_xlfn.CONCAT("skos:", raw!B135))</f>
+        <v/>
+      </c>
+      <c r="C135" t="str">
+        <f>raw!C135</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/chemical-warfare-experiments</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>raw!A136</f>
+        <v>https://data.naa.gov.au/def/agift/Chemical-and-pesticide-regulation</v>
+      </c>
+      <c r="B136" t="str">
+        <f>IF(raw!B136="-","",_xlfn.CONCAT("skos:", raw!B136))</f>
+        <v/>
+      </c>
+      <c r="C136" t="str">
+        <f>raw!C136</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/refining-and-chemical-programs</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>raw!A137</f>
+        <v>https://data.naa.gov.au/def/agift/Child-and-youth-support</v>
+      </c>
+      <c r="B137" t="str">
+        <f>IF(raw!B137="-","",_xlfn.CONCAT("skos:", raw!B137))</f>
+        <v/>
+      </c>
+      <c r="C137" t="str">
+        <f>raw!C137</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/child-endowment</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>raw!A138</f>
+        <v>https://data.naa.gov.au/def/agift/Child-and-youth-support</v>
+      </c>
+      <c r="B138" t="str">
+        <f>IF(raw!B138="-","",_xlfn.CONCAT("skos:", raw!B138))</f>
+        <v/>
+      </c>
+      <c r="C138" t="str">
+        <f>raw!C138</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/child-welfare</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>raw!A139</f>
+        <v>https://data.naa.gov.au/def/agift/Citizenship</v>
+      </c>
+      <c r="B139" t="str">
+        <f>IF(raw!B139="-","",_xlfn.CONCAT("skos:", raw!B139))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C139" t="str">
+        <f>raw!C139</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/citizenship</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Citizenship&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/citizenship&gt; .</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>raw!A140</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-community-assistance</v>
+      </c>
+      <c r="B140" t="str">
+        <f>IF(raw!B140="-","",_xlfn.CONCAT("skos:", raw!B140))</f>
+        <v/>
+      </c>
+      <c r="C140" t="str">
+        <f>raw!C140</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-aviation</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>raw!A141</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-community-assistance</v>
+      </c>
+      <c r="B141" t="str">
+        <f>IF(raw!B141="-","",_xlfn.CONCAT("skos:", raw!B141))</f>
+        <v/>
+      </c>
+      <c r="C141" t="str">
+        <f>raw!C141</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-defences</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>raw!A142</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-community-assistance</v>
+      </c>
+      <c r="B142" t="str">
+        <f>IF(raw!B142="-","",_xlfn.CONCAT("skos:", raw!B142))</f>
+        <v/>
+      </c>
+      <c r="C142" t="str">
+        <f>raw!C142</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-engineering</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>raw!A143</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-community-assistance</v>
+      </c>
+      <c r="B143" t="str">
+        <f>IF(raw!B143="-","",_xlfn.CONCAT("skos:", raw!B143))</f>
+        <v/>
+      </c>
+      <c r="C143" t="str">
+        <f>raw!C143</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-liberties</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>raw!A144</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-community-assistance</v>
+      </c>
+      <c r="B144" t="str">
+        <f>IF(raw!B144="-","",_xlfn.CONCAT("skos:", raw!B144))</f>
+        <v/>
+      </c>
+      <c r="C144" t="str">
+        <f>raw!C144</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-rights</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>raw!A145</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-law</v>
+      </c>
+      <c r="B145" t="str">
+        <f>IF(raw!B145="-","",_xlfn.CONCAT("skos:", raw!B145))</f>
+        <v/>
+      </c>
+      <c r="C145" t="str">
+        <f>raw!C145</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-aviation</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>raw!A146</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-law</v>
+      </c>
+      <c r="B146" t="str">
+        <f>IF(raw!B146="-","",_xlfn.CONCAT("skos:", raw!B146))</f>
+        <v/>
+      </c>
+      <c r="C146" t="str">
+        <f>raw!C146</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-defences</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>raw!A147</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-law</v>
+      </c>
+      <c r="B147" t="str">
+        <f>IF(raw!B147="-","",_xlfn.CONCAT("skos:", raw!B147))</f>
+        <v/>
+      </c>
+      <c r="C147" t="str">
+        <f>raw!C147</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-engineering</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>raw!A148</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-law</v>
+      </c>
+      <c r="B148" t="str">
+        <f>IF(raw!B148="-","",_xlfn.CONCAT("skos:", raw!B148))</f>
+        <v/>
+      </c>
+      <c r="C148" t="str">
+        <f>raw!C148</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-liberties</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>raw!A149</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-law</v>
+      </c>
+      <c r="B149" t="str">
+        <f>IF(raw!B149="-","",_xlfn.CONCAT("skos:", raw!B149))</f>
+        <v/>
+      </c>
+      <c r="C149" t="str">
+        <f>raw!C149</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-rights</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>raw!A150</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-registration</v>
+      </c>
+      <c r="B150" t="str">
+        <f>IF(raw!B150="-","",_xlfn.CONCAT("skos:", raw!B150))</f>
+        <v/>
+      </c>
+      <c r="C150" t="str">
+        <f>raw!C150</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-aviation</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>raw!A151</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-registration</v>
+      </c>
+      <c r="B151" t="str">
+        <f>IF(raw!B151="-","",_xlfn.CONCAT("skos:", raw!B151))</f>
+        <v/>
+      </c>
+      <c r="C151" t="str">
+        <f>raw!C151</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-defences</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>raw!A152</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-registration</v>
+      </c>
+      <c r="B152" t="str">
+        <f>IF(raw!B152="-","",_xlfn.CONCAT("skos:", raw!B152))</f>
+        <v/>
+      </c>
+      <c r="C152" t="str">
+        <f>raw!C152</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-engineering</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>raw!A153</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-registration</v>
+      </c>
+      <c r="B153" t="str">
+        <f>IF(raw!B153="-","",_xlfn.CONCAT("skos:", raw!B153))</f>
+        <v/>
+      </c>
+      <c r="C153" t="str">
+        <f>raw!C153</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-liberties</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>raw!A154</f>
+        <v>https://data.naa.gov.au/def/agift/Civil-registration</v>
+      </c>
+      <c r="B154" t="str">
+        <f>IF(raw!B154="-","",_xlfn.CONCAT("skos:", raw!B154))</f>
+        <v/>
+      </c>
+      <c r="C154" t="str">
+        <f>raw!C154</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/civil-rights</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>raw!A155</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-access--</v>
+      </c>
+      <c r="B155" t="str">
+        <f>IF(raw!B155="-","",_xlfn.CONCAT("skos:", raw!B155))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C155" t="str">
+        <f>raw!C155</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/collection-management</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Collection-access--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>raw!A156</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-access--</v>
+      </c>
+      <c r="B156" t="str">
+        <f>IF(raw!B156="-","",_xlfn.CONCAT("skos:", raw!B156))</f>
+        <v/>
+      </c>
+      <c r="C156" t="str">
+        <f>raw!C156</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/rubbish-collection</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>raw!A157</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-accessioning--</v>
+      </c>
+      <c r="B157" t="str">
+        <f>IF(raw!B157="-","",_xlfn.CONCAT("skos:", raw!B157))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C157" t="str">
+        <f>raw!C157</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/collection-management</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Collection-accessioning--&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>raw!A158</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-accessioning--</v>
+      </c>
+      <c r="B158" t="str">
+        <f>IF(raw!B158="-","",_xlfn.CONCAT("skos:", raw!B158))</f>
+        <v/>
+      </c>
+      <c r="C158" t="str">
+        <f>raw!C158</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/rubbish-collection</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>raw!A159</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-acquisition--</v>
+      </c>
+      <c r="B159" t="str">
+        <f>IF(raw!B159="-","",_xlfn.CONCAT("skos:", raw!B159))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C159" t="str">
+        <f>raw!C159</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/collection-management</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Collection-acquisition--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f>raw!A160</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-acquisition--</v>
+      </c>
+      <c r="B160" t="str">
+        <f>IF(raw!B160="-","",_xlfn.CONCAT("skos:", raw!B160))</f>
+        <v/>
+      </c>
+      <c r="C160" t="str">
+        <f>raw!C160</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/rubbish-collection</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f>raw!A161</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-management--</v>
+      </c>
+      <c r="B161" t="str">
+        <f>IF(raw!B161="-","",_xlfn.CONCAT("skos:", raw!B161))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C161" t="str">
+        <f>raw!C161</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/collection-management</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Collection-management--&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f>raw!A162</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-management--</v>
+      </c>
+      <c r="B162" t="str">
+        <f>IF(raw!B162="-","",_xlfn.CONCAT("skos:", raw!B162))</f>
+        <v/>
+      </c>
+      <c r="C162" t="str">
+        <f>raw!C162</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/rubbish-collection</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f>raw!A163</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-promotion--</v>
+      </c>
+      <c r="B163" t="str">
+        <f>IF(raw!B163="-","",_xlfn.CONCAT("skos:", raw!B163))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C163" t="str">
+        <f>raw!C163</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/collection-management</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Collection-promotion--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f>raw!A164</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-promotion--</v>
+      </c>
+      <c r="B164" t="str">
+        <f>IF(raw!B164="-","",_xlfn.CONCAT("skos:", raw!B164))</f>
+        <v/>
+      </c>
+      <c r="C164" t="str">
+        <f>raw!C164</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/rubbish-collection</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f>raw!A165</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-storage--</v>
+      </c>
+      <c r="B165" t="str">
+        <f>IF(raw!B165="-","",_xlfn.CONCAT("skos:", raw!B165))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C165" t="str">
+        <f>raw!C165</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/collection-management</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Collection-storage--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/collection-management&gt; .</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f>raw!A166</f>
+        <v>https://data.naa.gov.au/def/agift/Collection-storage--</v>
+      </c>
+      <c r="B166" t="str">
+        <f>IF(raw!B166="-","",_xlfn.CONCAT("skos:", raw!B166))</f>
+        <v/>
+      </c>
+      <c r="C166" t="str">
+        <f>raw!C166</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/rubbish-collection</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f>raw!A167</f>
+        <v>https://data.naa.gov.au/def/agift/Commissions-of-inquiry</v>
+      </c>
+      <c r="B167" t="str">
+        <f>IF(raw!B167="-","",_xlfn.CONCAT("skos:", raw!B167))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C167" t="str">
+        <f>raw!C167</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/high-commissions</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Commissions-of-inquiry&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/high-commissions&gt; .</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f>raw!A168</f>
+        <v>https://data.naa.gov.au/def/agift/Commissions-of-inquiry</v>
+      </c>
+      <c r="B168" t="str">
+        <f>IF(raw!B168="-","",_xlfn.CONCAT("skos:", raw!B168))</f>
+        <v>skos:narrowMatch</v>
+      </c>
+      <c r="C168" t="str">
+        <f>raw!C168</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/royal-commissions</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Commissions-of-inquiry&gt; skos:narrowMatch &lt; http://test.linked.data.gov.au/def/crs-th/royal-commissions&gt; .</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f>raw!A169</f>
+        <v>https://data.naa.gov.au/def/agift/Commonwealth-State-funding</v>
+      </c>
+      <c r="B169" t="str">
+        <f>IF(raw!B169="-","",_xlfn.CONCAT("skos:", raw!B169))</f>
+        <v/>
+      </c>
+      <c r="C169" t="str">
+        <f>raw!C169</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/commonwealth-police</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f>raw!A170</f>
+        <v>https://data.naa.gov.au/def/agift/Commonwealth-State-funding</v>
+      </c>
+      <c r="B170" t="str">
+        <f>IF(raw!B170="-","",_xlfn.CONCAT("skos:", raw!B170))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C170" t="str">
+        <f>raw!C170</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/commonwealth-state-relations</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Commonwealth-State-funding&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/commonwealth-state-relations&gt; .</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f>raw!A171</f>
+        <v>https://data.naa.gov.au/def/agift/Commonwealth-State-funding</v>
+      </c>
+      <c r="B171" t="str">
+        <f>IF(raw!B171="-","",_xlfn.CONCAT("skos:", raw!B171))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C171" t="str">
+        <f>raw!C171</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/commonwealth-state-relations</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Commonwealth-State-funding&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/commonwealth-state-relations&gt; .</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f>raw!A172</f>
+        <v>https://data.naa.gov.au/def/agift/Commonwealth-State-funding</v>
+      </c>
+      <c r="B172" t="str">
+        <f>IF(raw!B172="-","",_xlfn.CONCAT("skos:", raw!B172))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C172" t="str">
+        <f>raw!C172</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/state-commonwealth-relations</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Commonwealth-State-funding&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/state-commonwealth-relations&gt; .</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f>raw!A173</f>
+        <v>https://data.naa.gov.au/def/agift/Commonwealth-State-funding</v>
+      </c>
+      <c r="B173" t="str">
+        <f>IF(raw!B173="-","",_xlfn.CONCAT("skos:", raw!B173))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C173" t="str">
+        <f>raw!C173</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/state-commonwealth-relations</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Commonwealth-State-funding&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/state-commonwealth-relations&gt; .</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f>raw!A174</f>
+        <v>https://data.naa.gov.au/def/agift/Communications-infrastructure</v>
+      </c>
+      <c r="B174" t="str">
+        <f>IF(raw!B174="-","",_xlfn.CONCAT("skos:", raw!B174))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C174" t="str">
+        <f>raw!C174</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/communications</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Communications-infrastructure&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/communications&gt; .</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f>raw!A175</f>
+        <v>https://data.naa.gov.au/def/agift/Communications-infrastructure</v>
+      </c>
+      <c r="B175" t="str">
+        <f>IF(raw!B175="-","",_xlfn.CONCAT("skos:", raw!B175))</f>
+        <v/>
+      </c>
+      <c r="C175" t="str">
+        <f>raw!C175</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/communications-intelligence</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f>raw!A176</f>
+        <v>https://data.naa.gov.au/def/agift/Communications-infrastructure</v>
+      </c>
+      <c r="B176" t="str">
+        <f>IF(raw!B176="-","",_xlfn.CONCAT("skos:", raw!B176))</f>
+        <v/>
+      </c>
+      <c r="C176" t="str">
+        <f>raw!C176</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/communications-security</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f>raw!A177</f>
+        <v>https://data.naa.gov.au/def/agift/Community-based-corrections</v>
+      </c>
+      <c r="B177" t="str">
+        <f>IF(raw!B177="-","",_xlfn.CONCAT("skos:", raw!B177))</f>
+        <v/>
+      </c>
+      <c r="C177" t="str">
+        <f>raw!C177</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/community-services</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f>raw!A178</f>
+        <v>https://data.naa.gov.au/def/agift/Community-education</v>
+      </c>
+      <c r="B178" t="str">
+        <f>IF(raw!B178="-","",_xlfn.CONCAT("skos:", raw!B178))</f>
+        <v/>
+      </c>
+      <c r="C178" t="str">
+        <f>raw!C178</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/community-services</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f>raw!A179</f>
+        <v>https://data.naa.gov.au/def/agift/Community-engagement</v>
+      </c>
+      <c r="B179" t="str">
+        <f>IF(raw!B179="-","",_xlfn.CONCAT("skos:", raw!B179))</f>
+        <v/>
+      </c>
+      <c r="C179" t="str">
+        <f>raw!C179</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/community-services</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f>raw!A180</f>
+        <v>https://data.naa.gov.au/def/agift/Community-health-services</v>
+      </c>
+      <c r="B180" t="str">
+        <f>IF(raw!B180="-","",_xlfn.CONCAT("skos:", raw!B180))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C180" t="str">
+        <f>raw!C180</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/community-services</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Community-health-services&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f>raw!A181</f>
+        <v>https://data.naa.gov.au/def/agift/Community-housing</v>
+      </c>
+      <c r="B181" t="str">
+        <f>IF(raw!B181="-","",_xlfn.CONCAT("skos:", raw!B181))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C181" t="str">
+        <f>raw!C181</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/community-services</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Community-housing&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f>raw!A182</f>
+        <v>https://data.naa.gov.au/def/agift/Community-policing</v>
+      </c>
+      <c r="B182" t="str">
+        <f>IF(raw!B182="-","",_xlfn.CONCAT("skos:", raw!B182))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C182" t="str">
+        <f>raw!C182</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/community-services</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Community-policing&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f>raw!A183</f>
+        <v>https://data.naa.gov.au/def/agift/Community-recreational-programs</v>
+      </c>
+      <c r="B183" t="str">
+        <f>IF(raw!B183="-","",_xlfn.CONCAT("skos:", raw!B183))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C183" t="str">
+        <f>raw!C183</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/community-services</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Community-recreational-programs&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f>raw!A184</f>
+        <v>https://data.naa.gov.au/def/agift/Community-support</v>
+      </c>
+      <c r="B184" t="str">
+        <f>IF(raw!B184="-","",_xlfn.CONCAT("skos:", raw!B184))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C184" t="str">
+        <f>raw!C184</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/community-services</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Community-support&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/community-services&gt; .</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f>raw!A185</f>
+        <v>https://data.naa.gov.au/def/agift/Conservation-programs</v>
+      </c>
+      <c r="B185" t="str">
+        <f>IF(raw!B185="-","",_xlfn.CONCAT("skos:", raw!B185))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C185" t="str">
+        <f>raw!C185</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/conservation</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Conservation-programs&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/conservation&gt; .</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f>raw!A186</f>
+        <v>https://data.naa.gov.au/def/agift/Consular-services</v>
+      </c>
+      <c r="B186" t="str">
+        <f>IF(raw!B186="-","",_xlfn.CONCAT("skos:", raw!B186))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C186" t="str">
+        <f>raw!C186</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/consular-services</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Consular-services&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/consular-services&gt; .</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f>raw!A187</f>
+        <v>https://data.naa.gov.au/def/agift/Consumer-protection</v>
+      </c>
+      <c r="B187" t="str">
+        <f>IF(raw!B187="-","",_xlfn.CONCAT("skos:", raw!B187))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C187" t="str">
+        <f>raw!C187</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/consumer-affairs</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Consumer-protection&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/consumer-affairs&gt; .</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f>raw!A188</f>
+        <v>https://data.naa.gov.au/def/agift/Copyright-regulation</v>
+      </c>
+      <c r="B188" t="str">
+        <f>IF(raw!B188="-","",_xlfn.CONCAT("skos:", raw!B188))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C188" t="str">
+        <f>raw!C188</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/copyright</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Copyright-regulation&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/copyright&gt; .</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f>raw!A189</f>
+        <v>https://data.naa.gov.au/def/agift/Corrective-services</v>
+      </c>
+      <c r="B189" t="str">
+        <f>IF(raw!B189="-","",_xlfn.CONCAT("skos:", raw!B189))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C189" t="str">
+        <f>raw!C189</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/corrective-services</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Corrective-services&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/corrective-services&gt; .</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f>raw!A190</f>
+        <v>https://data.naa.gov.au/def/agift/Court-reporting</v>
+      </c>
+      <c r="B190" t="str">
+        <f>IF(raw!B190="-","",_xlfn.CONCAT("skos:", raw!B190))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C190" t="str">
+        <f>raw!C190</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/court-reporting</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Court-reporting&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/court-reporting&gt; .</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f>raw!A191</f>
+        <v>https://data.naa.gov.au/def/agift/Court-reporting</v>
+      </c>
+      <c r="B191" t="str">
+        <f>IF(raw!B191="-","",_xlfn.CONCAT("skos:", raw!B191))</f>
+        <v/>
+      </c>
+      <c r="C191" t="str">
+        <f>raw!C191</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/high-court</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f>raw!A192</f>
+        <v>https://data.naa.gov.au/def/agift/Court-reporting</v>
+      </c>
+      <c r="B192" t="str">
+        <f>IF(raw!B192="-","",_xlfn.CONCAT("skos:", raw!B192))</f>
+        <v/>
+      </c>
+      <c r="C192" t="str">
+        <f>raw!C192</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/supreme-court-law</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f>raw!A193</f>
+        <v>https://data.naa.gov.au/def/agift/Criminology</v>
+      </c>
+      <c r="B193" t="str">
+        <f>IF(raw!B193="-","",_xlfn.CONCAT("skos:", raw!B193))</f>
+        <v>skos:exactMatch</v>
+      </c>
+      <c r="C193" t="str">
+        <f>raw!C193</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/criminology</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Criminology&gt; skos:exactMatch &lt; http://test.linked.data.gov.au/def/crs-th/criminology&gt; .</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f>raw!A194</f>
+        <v>https://data.naa.gov.au/def/agift/Cultural-artefact-repatriation</v>
+      </c>
+      <c r="B194" t="str">
+        <f>IF(raw!B194="-","",_xlfn.CONCAT("skos:", raw!B194))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C194" t="str">
+        <f>raw!C194</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/cultural-affairs</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" ref="D194:D200" si="3">IF(B194="","",_xlfn.CONCAT("&lt;",A194,"&gt; ",B194," &lt;",C194,"&gt; ."))</f>
+        <v>&lt;https://data.naa.gov.au/def/agift/Cultural-artefact-repatriation&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-affairs&gt; .</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f>raw!A195</f>
+        <v>https://data.naa.gov.au/def/agift/Cultural-artefact-repatriation</v>
+      </c>
+      <c r="B195" t="str">
+        <f>IF(raw!B195="-","",_xlfn.CONCAT("skos:", raw!B195))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C195" t="str">
+        <f>raw!C195</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/cultural-institutions</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Cultural-artefact-repatriation&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-institutions&gt; .</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f>raw!A196</f>
+        <v>https://data.naa.gov.au/def/agift/Cultural-awards-and-scholarships--</v>
+      </c>
+      <c r="B196" t="str">
+        <f>IF(raw!B196="-","",_xlfn.CONCAT("skos:", raw!B196))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C196" t="str">
+        <f>raw!C196</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/cultural-affairs</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Cultural-awards-and-scholarships--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-affairs&gt; .</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f>raw!A197</f>
+        <v>https://data.naa.gov.au/def/agift/Cultural-awards-and-scholarships--</v>
+      </c>
+      <c r="B197" t="str">
+        <f>IF(raw!B197="-","",_xlfn.CONCAT("skos:", raw!B197))</f>
+        <v/>
+      </c>
+      <c r="C197" t="str">
+        <f>raw!C197</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/cultural-institutions</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f>raw!A198</f>
+        <v>https://data.naa.gov.au/def/agift/Cultural-centre-management</v>
+      </c>
+      <c r="B198" t="str">
+        <f>IF(raw!B198="-","",_xlfn.CONCAT("skos:", raw!B198))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C198" t="str">
+        <f>raw!C198</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/cultural-affairs</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Cultural-centre-management&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-affairs&gt; .</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f>raw!A199</f>
+        <v>https://data.naa.gov.au/def/agift/Cultural-centre-management</v>
+      </c>
+      <c r="B199" t="str">
+        <f>IF(raw!B199="-","",_xlfn.CONCAT("skos:", raw!B199))</f>
+        <v>skos:closeMatch</v>
+      </c>
+      <c r="C199" t="str">
+        <f>raw!C199</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/cultural-institutions</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Cultural-centre-management&gt; skos:closeMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-institutions&gt; .</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f>raw!A200</f>
+        <v>https://data.naa.gov.au/def/agift/Cultural-festivals--</v>
+      </c>
+      <c r="B200" t="str">
+        <f>IF(raw!B200="-","",_xlfn.CONCAT("skos:", raw!B200))</f>
+        <v>skos:broadMatch</v>
+      </c>
+      <c r="C200" t="str">
+        <f>raw!C200</f>
+        <v xml:space="preserve"> http://test.linked.data.gov.au/def/crs-th/cultural-affairs</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;https://data.naa.gov.au/def/agift/Cultural-festivals--&gt; skos:broadMatch &lt; http://test.linked.data.gov.au/def/crs-th/cultural-affairs&gt; .</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDB7086-5175-4539-B589-03A682534859}">
+  <dimension ref="A1:A114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>784</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>